--- a/tests/testthat/assets/input_branch_length_diameter.xlsx
+++ b/tests/testthat/assets/input_branch_length_diameter.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="11">
   <si>
     <t xml:space="preserve">species_name</t>
   </si>
@@ -70,6 +67,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -157,46 +155,43 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -204,7 +199,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1043</v>
@@ -225,7 +220,7 @@
         <v>9.64</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,7 +228,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1044</v>
@@ -254,7 +249,7 @@
         <v>10.3</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,7 +257,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1045</v>
@@ -283,7 +278,7 @@
         <v>6.2</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,7 +286,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1046</v>
@@ -312,7 +307,7 @@
         <v>10.25</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,7 +315,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1043</v>
@@ -341,7 +336,7 @@
         <v>17.45</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,7 +344,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1044</v>
@@ -370,7 +365,7 @@
         <v>12.7</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,7 +373,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1045</v>
@@ -399,7 +394,7 @@
         <v>8.67</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,7 +402,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1046</v>
@@ -428,7 +423,7 @@
         <v>5.28</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,7 +431,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1043</v>
@@ -457,7 +452,7 @@
         <v>9.57</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,7 +460,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1044</v>
@@ -486,7 +481,7 @@
         <v>10.34</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,7 +489,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1045</v>
@@ -515,7 +510,7 @@
         <v>11.06</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1046</v>
@@ -544,7 +539,7 @@
         <v>9.2</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1043</v>
@@ -573,7 +568,7 @@
         <v>8.41</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,7 +576,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1044</v>
@@ -602,7 +597,7 @@
         <v>11.68</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,7 +605,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1045</v>
@@ -631,7 +626,7 @@
         <v>4.55</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1046</v>
@@ -660,7 +655,7 @@
         <v>10.87</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1043</v>
@@ -689,7 +684,7 @@
         <v>6.59</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1044</v>
@@ -718,7 +713,7 @@
         <v>14.5</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1045</v>
@@ -747,7 +742,7 @@
         <v>4.7</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +750,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1046</v>
@@ -776,7 +771,7 @@
         <v>8.9</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1043</v>
@@ -805,7 +800,7 @@
         <v>6.101</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,7 +808,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1044</v>
@@ -834,7 +829,7 @@
         <v>8.6</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1045</v>
@@ -863,7 +858,7 @@
         <v>5.14</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,7 +866,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1046</v>
@@ -892,7 +887,7 @@
         <v>9.26</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,7 +895,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1043</v>
@@ -921,7 +916,7 @@
         <v>7.71</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,7 +924,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1044</v>
@@ -950,7 +945,7 @@
         <v>15.87</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,7 +953,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1045</v>
@@ -979,7 +974,7 @@
         <v>5.25</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1046</v>
@@ -1008,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/assets/input_branch_length_diameter.xlsx
+++ b/tests/testthat/assets/input_branch_length_diameter.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">species_name</t>
   </si>
   <si>
-    <t xml:space="preserve">sample_id</t>
+    <t xml:space="preserve">tree_id</t>
   </si>
   <si>
     <t xml:space="preserve">strain_number</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">branch_length_cm</t>
   </si>
   <si>
-    <t xml:space="preserve">leaf_area_cm2</t>
+    <t xml:space="preserve">area_cm2</t>
   </si>
   <si>
     <t xml:space="preserve">notes</t>
@@ -152,10 +152,10 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.24"/>
